--- a/bin/xlsx/101_PlayerSkill_角色技能.xlsx
+++ b/bin/xlsx/101_PlayerSkill_角色技能.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>Id</t>
   </si>
@@ -27,16 +27,19 @@
     <t>Name</t>
   </si>
   <si>
-    <t>desc1</t>
-  </si>
-  <si>
-    <t>pugong1</t>
-  </si>
-  <si>
-    <t>desc2</t>
-  </si>
-  <si>
-    <t>pugong2</t>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>#唯一Id</t>
+  </si>
+  <si>
+    <t>技能描述</t>
+  </si>
+  <si>
+    <t>技能名称</t>
   </si>
   <si>
     <t>desc3</t>
@@ -253,7 +256,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +266,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -270,14 +280,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,14 +302,92 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,92 +403,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,25 +418,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,157 +598,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,27 +615,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -660,6 +636,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -671,6 +662,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,177 +709,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1214,7 +1210,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C37"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1231,25 +1227,25 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1001</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1002</v>
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1257,10 +1253,10 @@
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1268,10 +1264,10 @@
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1279,10 +1275,10 @@
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1290,10 +1286,10 @@
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1301,10 +1297,10 @@
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1312,10 +1308,10 @@
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1323,10 +1319,10 @@
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1334,10 +1330,10 @@
         <v>1010</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1345,10 +1341,10 @@
         <v>1011</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1356,10 +1352,10 @@
         <v>1012</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1367,10 +1363,10 @@
         <v>1013</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1378,10 +1374,10 @@
         <v>1014</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1389,10 +1385,10 @@
         <v>1015</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1400,10 +1396,10 @@
         <v>1016</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1411,10 +1407,10 @@
         <v>1017</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1422,10 +1418,10 @@
         <v>1018</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1433,10 +1429,10 @@
         <v>1019</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1444,10 +1440,10 @@
         <v>1020</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1455,10 +1451,10 @@
         <v>1021</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1466,10 +1462,10 @@
         <v>1022</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1477,10 +1473,10 @@
         <v>1023</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1488,10 +1484,10 @@
         <v>1024</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1499,10 +1495,10 @@
         <v>1025</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1510,10 +1506,10 @@
         <v>1026</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1521,10 +1517,10 @@
         <v>1027</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1532,10 +1528,10 @@
         <v>1028</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1543,10 +1539,10 @@
         <v>1029</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1554,10 +1550,10 @@
         <v>1030</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1565,10 +1561,10 @@
         <v>1031</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1576,10 +1572,10 @@
         <v>1032</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1587,10 +1583,10 @@
         <v>1033</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1598,10 +1594,10 @@
         <v>1034</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1609,10 +1605,10 @@
         <v>1035</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1620,10 +1616,10 @@
         <v>1036</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
